--- a/Excel/Critério de inovação.xlsx
+++ b/Excel/Critério de inovação.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/luiz_nardi_bandtec_com_br/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB\Documentos\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="179" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1001ACC1-642B-46C9-A305-F984E771768E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A47ABC-C2CD-4276-A1C8-92CBD479F89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Funcionalidade</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>DreamHouse</t>
-  </si>
-  <si>
-    <t>Geolocalizção</t>
   </si>
   <si>
     <t>Chat</t>
@@ -97,20 +94,44 @@
     <t>Variedade</t>
   </si>
   <si>
-    <t>Filtros</t>
-  </si>
-  <si>
     <t>Interface intuitiva</t>
   </si>
   <si>
     <t>Acessibilidade</t>
+  </si>
+  <si>
+    <t>Filtro personalizado</t>
+  </si>
+  <si>
+    <t>Contrato negociável</t>
+  </si>
+  <si>
+    <t>Geolocalização</t>
+  </si>
+  <si>
+    <t>Concorrente 6</t>
+  </si>
+  <si>
+    <t>Concorrente 5</t>
+  </si>
+  <si>
+    <t>Concorrente 4</t>
+  </si>
+  <si>
+    <t>iBooking</t>
+  </si>
+  <si>
+    <t>Zap imóveis</t>
+  </si>
+  <si>
+    <t>Viva real</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,8 +147,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,24 +179,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -209,19 +270,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -283,79 +331,106 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,6 +446,7026 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43144634-3459-8BFE-38BB-3014A1D45A99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2994660" y="373380"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75A8F068-E249-499A-833F-205716E2490D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3916680" y="373380"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25E6294F-1BA0-4D90-8E5C-49CC306CAF8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4846320" y="373380"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagem 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0739B270-4D77-446F-9C66-6FD9961B7099}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3901440" y="563880"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagem 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{587117D9-8F1B-471B-B6B4-BA049F5DBADE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="731520"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagem 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC5B94FE-3E62-41A1-94F3-B08A9BF687CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3878580" y="754380"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagem 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEFFB334-3808-4339-BE42-3AF9025890CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4823460" y="762000"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagem 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00FF1D4A-B773-4370-89E0-B900A30A2681}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5783580" y="731520"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagem 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{120F2F97-6EC0-406F-9AF1-6DB3F38743B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5753100" y="1120140"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagem 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61A19251-D287-4CFC-9DB4-F7DBE6B6CFA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5745480" y="1310640"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagem 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F892EF4-C1D7-4EF4-8117-F35590A6B40E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5753100" y="1501140"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagem 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BBAFE24-64B4-4951-AC36-4905E70B7D01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5745480" y="1882140"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Imagem 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6514E63C-EFE7-4B3E-B671-5BD548C87422}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5753100" y="1676400"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagem 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C05A3D5-16F6-46B7-B4FA-9245F9E824C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5768340" y="2065020"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Imagem 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27A7AFD0-490F-42AE-813E-D61FC205A382}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5760720" y="2270760"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Imagem 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B6A2E6A-73DE-4989-9F9A-62B779193C04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5783580" y="2446020"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Imagem 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60A7EF0F-859B-4A8B-B8A4-C3ABB5952664}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5775960" y="2644140"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Imagem 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3930BE5-2A29-44DF-A618-2D1733E8AC4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5768340" y="2834640"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Imagem 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF770B3B-F151-412D-9AEC-A1F408C6DFB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5791200" y="3017520"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Imagem 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC626D86-395B-41FE-9EC0-5B363DDC3BC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4831080" y="2743200"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Imagem 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1981C8A6-F472-44B4-9A59-D77075C30A32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4846320" y="2644140"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Imagem 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EDE1D07-DF9C-45AB-9FB7-999CBE7676EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4846320" y="2453640"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Imagem 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A77CEEC9-FBB9-4675-A297-28AC2C017435}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4823460" y="1889760"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Imagem 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8496A417-430D-4ECC-B89F-7BCE853BD346}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4838700" y="1501140"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Imagem 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF011C76-02BE-4D76-B28C-1C19478F74E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4823460" y="1303020"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Imagem 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D56D9DF-0043-4A7D-B958-1D4BC6BA2F2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4823460" y="1120140"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Imagem 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD3E5DB2-1031-4CFF-8A98-CE04C8A558D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3878580" y="1143000"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Imagem 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCF138FA-3126-47CF-B979-AEB1FE8F1CD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4815840" y="944880"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Imagem 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEB0B5E7-489C-4F30-8EEC-4FC93E549352}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2948940" y="1112520"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Imagem 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ECFB310-DE53-4A57-8AE6-00BF74BBE1D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2948940" y="1310640"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Imagem 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EEB453B-E43A-4416-8BA6-392EB05B2F41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3878580" y="1325880"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Imagem 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4A30D83-8156-40C3-9F09-6AA104B5258D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3893820" y="1866900"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Imagem 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3535E26-20A8-4048-9726-235553E9EF31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2948940" y="1874520"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Imagem 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA9D825A-E997-4662-A020-C031C9882D63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2948940" y="2446020"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Imagem 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20B1A5F9-9753-4ED6-AA66-4A72510E3EC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3893820" y="2438400"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Imagem 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF4ABEDB-5D0B-4F54-81CC-3088DC23AF20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3893820" y="2644140"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Imagem 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEC5C100-3BFA-4696-AC31-430F6523CBD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3886200" y="2834640"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Imagem 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A65718B3-EACC-4898-9818-9AED40428886}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3893820" y="3032760"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Imagem 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71EFBD5F-6F11-46E8-95BF-3AF64EB836D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2941320" y="2758440"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Imagem 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00348771-E4C1-4944-86BB-885EFD2C815D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2956560" y="2628900"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Imagem 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{831CE4FC-1D91-F812-F73D-8423851515A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2842260" y="2910840"/>
+          <a:ext cx="403860" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Imagem 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D311E1C4-8B11-405F-7520-DB81048EB11E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4716780" y="2080260"/>
+          <a:ext cx="411480" cy="411480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Imagem 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13AD5474-01C8-A139-EBB6-18C145B8EB8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4724400" y="1897380"/>
+          <a:ext cx="403860" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Imagem 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{454A7EB7-58EA-8044-F11C-3503B2F94559}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3810000" y="1920240"/>
+          <a:ext cx="365760" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Imagem 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F60F7067-0096-E36C-5102-A2EE55625CC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3802380" y="2087880"/>
+          <a:ext cx="396240" cy="396240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Imagem 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CE14448-5AD1-CF7D-C776-D18F7250C911}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2842260" y="2087880"/>
+          <a:ext cx="403860" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Imagem 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A504D167-7905-485B-204E-F5F49090BA47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2842260" y="1905000"/>
+          <a:ext cx="419100" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Imagem 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD8AA992-4B0B-CB0C-7359-E93BC947AD8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4724400" y="1531620"/>
+          <a:ext cx="411480" cy="411480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Imagem 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10BA8677-9827-3863-8233-7EBB92E2427C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3787140" y="1546860"/>
+          <a:ext cx="388620" cy="388620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Imagem 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AAFF7E7-4157-D722-B101-36482BC814F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3794760" y="1379220"/>
+          <a:ext cx="388620" cy="388620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>678180</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Imagem 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85DEF161-449A-7FDC-BF05-FDB61C1A9C66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2857500" y="1348740"/>
+          <a:ext cx="419100" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Imagem 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21D852E8-0A55-AAD7-499E-9F6C3F757FC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2865120" y="1546860"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Imagem 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E518DAF2-7337-C880-D67D-30DF1A536373}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5661660" y="800100"/>
+          <a:ext cx="411480" cy="411480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Imagem 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEFD0435-319F-1122-2316-11BC7DD8C05C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5661660" y="411480"/>
+          <a:ext cx="434340" cy="434340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>670560</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Imagem 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03AF1DC6-CEBB-D8DE-A3D6-F54E18202A56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5661660" y="243840"/>
+          <a:ext cx="419100" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Imagem 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C59AF721-FCDB-D95F-9C35-3362D8749F43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3794760" y="830580"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Imagem 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5430E008-CEF2-BC3D-23D6-181E45AE0155}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4716780" y="441960"/>
+          <a:ext cx="419100" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Imagem 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90CBF6E4-0FA7-00EC-69E4-726C97113745}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2865120" y="457200"/>
+          <a:ext cx="365760" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Imagem 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{572FDB18-1AA4-912E-3476-83F14B17658D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2849880" y="807720"/>
+          <a:ext cx="388620" cy="388620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Imagem 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D328C11-645A-424A-AA06-87CA1117AF0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2834640" y="3002280"/>
+          <a:ext cx="403860" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Imagem 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42F5F4A3-629B-4039-82B9-B1E030AB9045}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3893820" y="3101340"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Imagem 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EABFDF5B-8DA1-488D-8820-5972C9A726EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2827020" y="3177540"/>
+          <a:ext cx="403860" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Imagem 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E8BD276-63D1-448C-B577-D470096C2E0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4815840" y="3116580"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Imagem 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C342637-10EF-430C-B65C-93E0F51BF078}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5775960" y="3101340"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Imagem 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7673EC9E-7C51-4DCE-81D1-33EB3FFAEF92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5760720" y="3307080"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Imagem 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC3DC432-79B3-46D9-B939-81D328218551}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3756660" y="3185160"/>
+          <a:ext cx="403860" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Imagem 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ADB7D07-86E4-46D9-82CD-A1243DB212F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4724400" y="3200400"/>
+          <a:ext cx="403860" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="Imagem 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD1A5856-A8D2-4193-9057-5EDBDD8FEB13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6720840" y="373380"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="Imagem 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B63ACC8-DE6E-436A-8398-D3B8AC558D55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7520940" y="251460"/>
+          <a:ext cx="419100" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="Imagem 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B17C22F-9304-4E70-94CE-127345DF34F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5646420" y="243840"/>
+          <a:ext cx="419100" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="Imagem 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DF5993C-758D-4775-B95D-8C5CB38024DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5638800" y="434340"/>
+          <a:ext cx="419100" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="Imagem 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23CC8074-ECBD-4518-B0C5-2A8CD6E97A8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6728460" y="548640"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="Imagem 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC632D5D-B67B-4945-BD51-8E4834D80D90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7642860" y="556260"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="Imagem 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DE20076-412E-411B-B5AA-7DDE473D328D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7505700" y="624840"/>
+          <a:ext cx="419100" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="Imagem 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAB6035D-92AD-47CB-9B7A-BD46A6245AF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6720840" y="739140"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="Imagem 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83756127-1FF6-4FFA-99A1-17A4072D44E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5745480" y="739140"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="Imagem 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E64B8C0-78F3-4D62-A296-CAC5A35785BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7498080" y="815340"/>
+          <a:ext cx="419100" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="Imagem 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CE9EAE2-A46F-4B92-BDD8-755628AA3351}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5631180" y="807720"/>
+          <a:ext cx="419100" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="Imagem 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BCAC5DD-D8BA-4419-B366-E91DDCD5B427}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6728460" y="914400"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="Imagem 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{113819F3-C1B5-413B-9E26-0B5E17ACDF2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5745480" y="1097280"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="Imagem 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F00E9584-6B90-45C6-BA16-0218F9783E8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6697980" y="1089660"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="Imagem 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D50936B2-5BE2-436E-936A-F6F30148A855}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7620000" y="1112520"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="Imagem 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0FDB0D7-90D6-49A5-B4E7-12A1D328FC2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5753100" y="1272540"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="Imagem 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70E075C2-F4D4-4E24-81BC-D7481B30ACDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6682740" y="1280160"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="Imagem 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B74218B-A1EE-4954-8FDB-98BB91EB2696}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7597140" y="1280160"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="Imagem 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F67AC58C-CE68-42D5-95AD-F2B2E3FF1DB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5638800" y="1341120"/>
+          <a:ext cx="411480" cy="411480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="Imagem 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{320F7E80-2BF6-48BD-9F65-A63EAFA1E025}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7498080" y="1356360"/>
+          <a:ext cx="411480" cy="411480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="Imagem 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDC8ECEF-43F9-4C51-96FE-3D672B06266B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6576060" y="1356360"/>
+          <a:ext cx="411480" cy="411480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="93" name="Imagem 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E8E840A-E975-4390-A5A6-CD1DEFE38A6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5745480" y="1653540"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="94" name="Imagem 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8D74C67-11AB-4337-B452-2DCF7660335B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6675120" y="1645920"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="95" name="Imagem 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E30725D-38AB-482C-B369-0073B97B6172}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7612380" y="1653540"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="96" name="Imagem 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7499B0E-39CA-4553-A7B2-687FEE760BA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5631180" y="1722120"/>
+          <a:ext cx="403860" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="97" name="Imagem 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE5B70EB-EF07-41C7-B19E-A5E531F9832C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7505700" y="1714500"/>
+          <a:ext cx="403860" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="98" name="Imagem 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8DC561D-CE23-4D68-A16B-FDA850481755}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6690360" y="1836420"/>
+          <a:ext cx="182880" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="99" name="Imagem 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{266CE513-5E6C-4BB7-A646-A0AE8D85CD59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5638800" y="1905000"/>
+          <a:ext cx="403860" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="100" name="Imagem 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDA8E2E2-1F18-4465-9B1B-9F863999603F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6568440" y="1920240"/>
+          <a:ext cx="403860" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="101" name="Imagem 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F9319BA-3E50-4780-AF61-DDE4295B96F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7505700" y="1920240"/>
+          <a:ext cx="403860" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="102" name="Imagem 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D919D390-0F0C-4860-9E3F-232F9E4DE44E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6667500" y="2202180"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="103" name="Imagem 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7629D99B-08DC-4101-8085-A25DF95647A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5638800" y="2080260"/>
+          <a:ext cx="403860" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="104" name="Imagem 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8141AF56-00D4-4361-957E-E10A588C3B53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7513320" y="2103120"/>
+          <a:ext cx="403860" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="105" name="Imagem 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8001658B-5E94-4906-BACD-07B58B68C12E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6659880" y="2362200"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="106" name="Imagem 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F88D1776-9388-4C5B-8B87-DE7D5230839D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5638800" y="2278380"/>
+          <a:ext cx="403860" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="107" name="Imagem 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2EDD64C-AD62-4E89-8E10-E978F1993FD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7498080" y="2278380"/>
+          <a:ext cx="403860" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="108" name="Imagem 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FF34579-90E9-423F-BC04-E79092E4F1D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7505700" y="2438400"/>
+          <a:ext cx="403860" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="109" name="Imagem 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{049B1BFE-D1D2-4357-BC63-338B06C02BE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5753100" y="2567940"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="110" name="Imagem 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFBCD668-E59C-4976-9475-A5ED91048C3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6553200" y="2438400"/>
+          <a:ext cx="403860" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="111" name="Imagem 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C63AB83D-95B3-466C-B093-74A5B3E84DBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5631180" y="2628900"/>
+          <a:ext cx="403860" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="112" name="Imagem 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EAA848A-51B8-4544-8A2A-42BBE13891CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6560820" y="2621280"/>
+          <a:ext cx="403860" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="113" name="Imagem 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{808179A1-A8F1-41D5-A778-F60063E03947}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7505700" y="2613660"/>
+          <a:ext cx="403860" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="114" name="Imagem 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE7538B5-FCC6-4E5A-8FDF-92CB7DB39643}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7498080" y="2994660"/>
+          <a:ext cx="403860" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="115" name="Imagem 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8808BA9-C1B9-461F-8C18-F6FD18DCD2C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6560820" y="2819400"/>
+          <a:ext cx="403860" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="116" name="Imagem 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B085EB92-3E05-464D-9C64-5B684B274E48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6675120" y="3116580"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="117" name="Imagem 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C898C96-8585-49B3-B6EF-4797E1A0094B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5722620" y="2941320"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="118" name="Imagem 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA6EE348-B8F6-4735-B281-7DA092FBE15B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5623560" y="2994660"/>
+          <a:ext cx="403860" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="119" name="Imagem 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F269D2A-39C9-46A1-8A55-1C819388D819}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7498080" y="2827020"/>
+          <a:ext cx="403860" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -670,10 +7765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -681,205 +7776,276 @@
     <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
     <col min="3" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="1"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="1"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="8"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="1"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="2"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="5"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="2"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="2"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="4"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="5"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="2"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="25"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="2"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="4"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A3:B3"/>
@@ -891,12 +8057,11 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/Critério de inovação.xlsx
+++ b/Excel/Critério de inovação.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB\Documentos\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A47ABC-C2CD-4276-A1C8-92CBD479F89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E54B83-F925-4730-87F7-5F3BC43BBBAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -170,18 +170,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -359,78 +353,76 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2893,15 +2885,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
+      <xdr:colOff>236220</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:colOff>640080</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2931,7 +2923,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2842260" y="2910840"/>
+          <a:off x="2834640" y="2628900"/>
           <a:ext cx="403860" cy="403860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4212,7 +4204,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2827020" y="3177540"/>
+          <a:off x="2827020" y="2994660"/>
           <a:ext cx="403860" cy="403860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6248,15 +6240,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>624840</xdr:colOff>
+      <xdr:colOff>632460</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6286,7 +6278,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6568440" y="1920240"/>
+          <a:off x="6576060" y="1905000"/>
           <a:ext cx="403860" cy="403860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6553,15 +6545,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
+      <xdr:colOff>335280</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6591,7 +6583,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6659880" y="2362200"/>
+          <a:off x="6682740" y="2369820"/>
           <a:ext cx="190500" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6858,13 +6850,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
+      <xdr:colOff>243840</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
@@ -6896,7 +6888,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6553200" y="2438400"/>
+          <a:off x="6591300" y="2438400"/>
           <a:ext cx="403860" cy="403860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6980,13 +6972,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
+      <xdr:colOff>251460</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>617220</xdr:colOff>
+      <xdr:colOff>655320</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
@@ -7018,7 +7010,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6560820" y="2621280"/>
+          <a:off x="6598920" y="2621280"/>
           <a:ext cx="403860" cy="403860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7163,15 +7155,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
+      <xdr:colOff>236220</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>617220</xdr:colOff>
+      <xdr:colOff>640080</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7201,7 +7193,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6560820" y="2819400"/>
+          <a:off x="6583680" y="2811780"/>
           <a:ext cx="403860" cy="403860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7224,13 +7216,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
+      <xdr:colOff>350520</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
+      <xdr:colOff>541020</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
@@ -7262,7 +7254,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6675120" y="3116580"/>
+          <a:off x="6697980" y="3116580"/>
           <a:ext cx="190500" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7768,7 +7760,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7785,263 +7777,264 @@
         <v>0</v>
       </c>
       <c r="B1" s="19"/>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="20" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="5"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="9"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="5"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="2"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="8"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="1"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="3"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="5"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="3"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="5"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="3"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="15"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="5"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="3"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="5"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="26"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="10"/>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="1"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="8"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A12:B12"/>
@@ -8058,7 +8051,6 @@
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
